--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/SlipMedia.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/SlipMedia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A783FE80-E292-4560-A0C2-3E12DCAB701C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40657036-7B77-463D-A5B6-2E633C0FD431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -132,10 +132,6 @@
   </si>
   <si>
     <t>傳票批號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"F"+year+month(123456789ABC)+day+mediaSeq核心傳票媒體上傳序號</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -347,28 +343,31 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>T:記
-C:貸</t>
-  </si>
-  <si>
-    <t>R:會
-C:貸</t>
-  </si>
-  <si>
-    <t>D:部
-C:貸</t>
-  </si>
-  <si>
-    <t>S:傳
-C:貸</t>
-  </si>
-  <si>
-    <t>C:成
-C:貸</t>
-  </si>
-  <si>
-    <t>L:最
-C:貸</t>
+    <t>AcSubBookCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>區隔帳冊</t>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+  </si>
+  <si>
+    <t>00A:傳統帳冊
+101:分紅帳冊
+201:利變年金帳冊
+203:利變萬能帳冊
+204:利變壽險帳冊
+30A:OIU傳統帳冊
+301:OIU利變年金
+303:OIU利變萬能
+304:OIU利變壽險</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F10+民國年+月份(1碼)+日期+3碼序號
+*3碼序號，從CdGSeq取號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -493,7 +492,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,6 +502,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,7 +587,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -598,10 +603,10 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -614,9 +619,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -628,13 +630,10 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -646,15 +645,6 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -688,12 +678,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -705,6 +689,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -739,9 +726,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -779,9 +766,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -814,26 +801,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -866,26 +836,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1059,32 +1012,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.44140625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="71.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.44140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="5"/>
@@ -1092,76 +1045,76 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1180,443 +1133,464 @@
       <c r="F8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
         <v>1</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="20">
+        <v>4</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>2</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="20">
+        <v>8</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>3</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="20">
+        <v>2</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>4</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="20">
+        <v>3</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" s="22" customFormat="1" ht="81" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>5</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="20">
+        <v>3</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="22" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>6</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="20">
+        <v>12</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <v>7</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="20">
+        <v>3</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>8</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="20">
+        <v>50</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>9</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="20">
+        <v>11</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>10</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="20">
+        <v>5</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <v>11</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="20">
+        <v>40</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>12</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="14">
+        <v>3</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="1:7" s="22" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>13</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="31">
+        <v>1</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <v>14</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="20">
+        <v>16</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <v>15</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="20">
+        <v>15</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <v>16</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="C24" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="25">
-        <v>4</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
-        <v>2</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="25">
-        <v>8</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="E24" s="20">
+        <v>6</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
+        <v>17</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="20">
+        <v>40</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <v>18</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="20">
+        <v>1</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" spans="1:7" s="22" customFormat="1" ht="145.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
+        <v>19</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="20">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="25">
-        <v>2</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
-        <v>4</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="24" t="s">
+      <c r="F27" s="18"/>
+      <c r="G27" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
+        <v>19</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
+        <v>20</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="25">
-        <v>3</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" s="27" customFormat="1" ht="81" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
-        <v>5</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="25">
-        <v>3</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="E29" s="20">
         <v>6</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="24" t="s">
+      <c r="F29" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
+        <v>21</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
+        <v>22</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="25">
-        <v>10</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
-        <v>7</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="25">
-        <v>3</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22">
-        <v>8</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="25">
-        <v>50</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
-        <v>9</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="25">
-        <v>11</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22">
-        <v>10</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="25">
-        <v>5</v>
-      </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="33"/>
-    </row>
-    <row r="19" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22">
-        <v>11</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="25">
-        <v>40</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="31"/>
-    </row>
-    <row r="20" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
-        <v>12</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="22">
-        <v>3</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="28"/>
-    </row>
-    <row r="21" spans="1:7" s="27" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="22">
-        <v>13</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="38">
-        <v>1</v>
-      </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
-        <v>14</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="25">
-        <v>16</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="28"/>
-    </row>
-    <row r="23" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
-        <v>15</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="25">
-        <v>15</v>
-      </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="28"/>
-    </row>
-    <row r="24" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
-        <v>16</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="25">
+      <c r="E31" s="20">
         <v>6</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="35"/>
-    </row>
-    <row r="25" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22">
-        <v>17</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="25">
-        <v>40</v>
-      </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="34"/>
-    </row>
-    <row r="26" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22">
-        <v>18</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="25">
-        <v>1</v>
-      </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="34"/>
-    </row>
-    <row r="27" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
-        <v>19</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22">
-        <v>20</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="25">
-        <v>6</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
-        <v>21</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
-        <v>22</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="25">
-        <v>6</v>
-      </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="26"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1664,35 +1638,35 @@
     </row>
     <row r="2" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/SlipMedia.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/SlipMedia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40657036-7B77-463D-A5B6-2E633C0FD431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FF3012-CCF3-44E1-A99E-73198113CF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -100,10 +100,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -368,6 +364,9 @@
     <t>F10+民國年+月份(1碼)+日期+3碼序號
 *3碼序號，從CdGSeq取號</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -1014,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1035,10 +1034,10 @@
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>26</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1063,7 +1062,7 @@
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="5"/>
@@ -1142,10 +1141,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>12</v>
@@ -1161,13 +1160,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="D10" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="20">
         <v>8</v>
@@ -1180,10 +1179,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>13</v>
@@ -1199,10 +1198,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>12</v>
@@ -1218,10 +1217,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>13</v>
@@ -1231,7 +1230,7 @@
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="22" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -1239,10 +1238,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>12</v>
@@ -1252,7 +1251,7 @@
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -1260,10 +1259,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>33</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>13</v>
@@ -1279,13 +1278,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>46</v>
-      </c>
       <c r="D16" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="20">
         <v>50</v>
@@ -1298,10 +1297,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>12</v>
@@ -1317,10 +1316,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>12</v>
@@ -1336,13 +1335,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" s="20">
         <v>40</v>
@@ -1355,10 +1354,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>23</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>24</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>12</v>
@@ -1374,10 +1373,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>53</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>12</v>
@@ -1387,7 +1386,7 @@
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -1395,10 +1394,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>13</v>
@@ -1407,7 +1406,7 @@
         <v>16</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22" s="23"/>
     </row>
@@ -1416,10 +1415,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>12</v>
@@ -1435,10 +1434,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>12</v>
@@ -1454,13 +1453,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" s="20">
         <v>40</v>
@@ -1473,10 +1472,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>12</v>
@@ -1492,20 +1491,20 @@
         <v>19</v>
       </c>
       <c r="B27" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="D27" s="19" t="s">
         <v>82</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="E27" s="20">
         <v>3</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -1516,17 +1515,17 @@
         <v>20</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -1534,10 +1533,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>12</v>
@@ -1546,10 +1545,10 @@
         <v>6</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -1557,20 +1556,20 @@
         <v>21</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="D30" s="19" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -1578,10 +1577,10 @@
         <v>22</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>12</v>
@@ -1638,35 +1637,35 @@
     </row>
     <row r="2" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
